--- a/manual_eval.xlsx
+++ b/manual_eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c8f7f178107f2a6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c8f7f178107f2a6/Desktop/Tesi (finalmente)/Esperimenti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1158" documentId="8_{B6F10F42-CA86-454D-9D55-A65CA7B0FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316D8079-77CE-4FD4-B78F-8AB83F672548}"/>
+  <xr:revisionPtr revIDLastSave="1168" documentId="8_{B6F10F42-CA86-454D-9D55-A65CA7B0FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144E4513-18F0-403C-AC36-238BE312621D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{D2DF1649-3C30-4C91-AF38-1B3B12A0CA17}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D2DF1649-3C30-4C91-AF38-1B3B12A0CA17}"/>
   </bookViews>
   <sheets>
     <sheet name="ModernMT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="469">
   <si>
     <t>Source</t>
   </si>
@@ -3349,6 +3349,303 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Reference Translation</t>
+  </si>
+  <si>
+    <t>Stime Preliminari sulla Prevalenza di Patologie Pregresse Selezionate tra Pazienti affetti da Malattia da Coronavirus 2019 — Stati Uniti, 12 febbraio -— 28 marzo 2020</t>
+  </si>
+  <si>
+    <t>I report dalla Cina e dall’Italia suggeriscono che i fattori di rischio di malattia grave includono l’età avanzata e la presenza di almeno una tra alcune patologie pregresse.</t>
+  </si>
+  <si>
+    <t>Di questi 7.162 casi, 2.692 (37,6%) pazienti erano affetti da una o più patologie pregresse o fattori di rischio, e 4.470 (62,4%) non presentavano alcuna condizione tra quelle segnalate.</t>
+  </si>
+  <si>
+    <t>Questi risultati preliminari suggeriscono che, negli Stati Uniti, le persone con patologie pregresse o altri fattori di rischio riconosciuti per complicanze gravi da infezioni respiratorie presentino un maggiore rischio di malattia grave da COVID-19 rispetto alle persone senza queste patologie.</t>
+  </si>
+  <si>
+    <t>Quanto ai casi con dati mancanti sull’insorgenza, la data dell’insorgenza è stata stimata sottraendo 4 giorni (intervallo mediano tra l’insorgenza dei sintomi e la data di raccolta dei campioni tra i casi con date note in questi dati) dalla prima raccolta di campioni.</t>
+  </si>
+  <si>
+    <t>Sono state calcolate le percentuali dei pazienti di tutte le età con patologie pregresse che non sono stati ospedalizzati, che sono stati ospedalizzati senza ammissione in UTI, e che sono stati ospedalizzati con ammissione in UTI.</t>
+  </si>
+  <si>
+    <t>Per tenere conto dei dati mancanti in questi report preliminari, gli intervalli sono stati stimati con un limite inferiore comprendente come denominatore i casi sia con stato conosciuto che sconosciuto sull’ospedalizzazione con e senza ricovero in UTI, e un limite superiore che utilizzava come denominatore solo i casi con stato dell’esito conosciuto.</t>
+  </si>
+  <si>
+    <t>Sono stati consegnati ai CDC moduli di segnalazione per 74.439 (60,7%) casi.</t>
+  </si>
+  <si>
+    <t>Il diabete mellito (784, 10,9%), malattie polmonari croniche (656, 9,2%), e malattie cardiovascolari (647, 9,0%) erano le patologie segnalate più spesso tra tutti i casi.</t>
+  </si>
+  <si>
+    <t>Tra i pazienti di età ≥19 anni, la percentuale di ospedalizzazioni senza ricovero in UTI era più alta tra le persone affette da patologie pregresse (27,3% - 29,8%) che tra quelle che ne erano prive (7,2% - 7,8%); anche la percentuale di casi che hanno portato a ricovero in UTI era più alta per le persone con patologie pregresse (13,3% - 14,5%) che per quelle che non ne presentavano (2,2% - 2,4%) (Tabella 2).</t>
+  </si>
+  <si>
+    <t>Tra tutti i pazienti COVID-19 con informazioni complete sulle patologie pregresse o sui fattori di rischio, si sono verificati 184 decessi (tutti tra pazienti di età ≥19 anni); 173 di questi (94%) sono stati registrati tra pazienti con almeno una condizione pregressa.</t>
+  </si>
+  <si>
+    <t>Questa analisi è stata limitata da numeri esigui e dati mancanti a causa dell’onere imposto ai dipartimenti sanitari di segnalare i numeri di casi in rapido aumento, e i risultati potrebbero cambiare quando saranno disponibili ulteriori dati.</t>
+  </si>
+  <si>
+    <t>La prevalenza della BPCO negli adulti negli Stati Uniti era del 5,9%, e nel 2018 la prevalenza stimata dell’asma corrente tra le persone di tutte le età era del 7,9%.</t>
+  </si>
+  <si>
+    <t>I risultati di questo report sono soggetti almeno a sei limitazioni.</t>
+  </si>
+  <si>
+    <t>Non si può presumere che i casi con informazioni mancanti siano simili a quelli con dati sulle ospedalizzazioni o sulle patologie pregresse.</t>
+  </si>
+  <si>
+    <t>In terzo luogo, a causa della disponibilità limitata di test diagnostici in molte giurisdizioni nel periodo considerato, questa analisi è probabilmente orientata a favore dei casi più gravi, e i risultati potrebbero cambiare quando i test diagnostici saranno più diffusi.</t>
+  </si>
+  <si>
+    <t>Ad esempio, l’asma e la BPCO sono state incluse nella categoria delle malattie polmonari croniche.</t>
+  </si>
+  <si>
+    <t>Le persone con patologie pregresse che presentano sintomi di COVID-19, compresi febbre, tosse o fiato corto, devono contattare il proprio fornitore di assistenza sanitaria.</t>
+  </si>
+  <si>
+    <t>Tutte le persone devono adottare misure per proteggere sé stesse e gli altri dal COVID-19.</t>
+  </si>
+  <si>
+    <t>Le strategie di attenuazione comunitarie, che mirano a ridurre la diffusione del COVID-19, sono essenziali per proteggere tutte le persone dal COVID-19 affette da patologie pregresse e altre persone a rischio di malattia grave associata al COVID-19 (https://www.cdc.gov/coronavirus/2019-ncov/downloads/community-mitigation-strategy.pdf).</t>
+  </si>
+  <si>
+    <t>Cosa viene aggiunto da questo report?</t>
+  </si>
+  <si>
+    <t>Le strategie per proteggere tutte le persone, specialmente quelle affette da patologie pregresse, come il distanziamento sociale e il lavarsi le mani, devono essere adottate da tutte le comunità e tutte le persone per contribuire a rallentare la diffusione del COVID-19.</t>
+  </si>
+  <si>
+    <t>Tuttavia, il COVID-19 ha una gravità e una mortalità inferiori rispetto alla SARS, pur essendo molto più trasmissibile, e colpisce più gli anziani che i giovani, e più gli uomini che le donne.</t>
+  </si>
+  <si>
+    <t>Sebbene molte domande necessitino ancora delle risposte, si spera che questa rassegna possa aiutare a comprendere ed eradicare questa malattia minacciosa.</t>
+  </si>
+  <si>
+    <t>L’epidemia ha avuto inizio a Wuhan, in Cina, e si è diffusa velocemente per l’intero Paese e in altri 50 Paesi in tutto il mondo.</t>
+  </si>
+  <si>
+    <t>Secondo PubMed (https://www.ncbi.nlm nih.gov/pubmed/), dal primo report del 7 gennaio 2020 che ha determinato la sequenza del virus isolato da diversi pazienti , in meno di due mesi sono stati pubblicati oltre 200 articoli sul COVID-19 comprendenti la sua virologia, epidemiologia, eziologia, diagnosi e cura.</t>
+  </si>
+  <si>
+    <t>Verrà discusso anche ciò che si è appreso finora circa la prevenzione e la prognosi della malattia, insieme ad alcuni interrogativi urgenti ancora senza risposta.</t>
+  </si>
+  <si>
+    <t>Pertanto, quella di COVID-19 è la terza epidemia di coronavirus nella storia umana documentata.</t>
+  </si>
+  <si>
+    <t>Il 15 gennaio 2020 è stato registrato il primo caso fatale a Wuhan.</t>
+  </si>
+  <si>
+    <t>Il 23 gennaio, la città di Wuhan è stata chiusa e tutto il suo trasporto pubblico è stato sospeso.</t>
+  </si>
+  <si>
+    <t>Al momento della stesura di questo report, la malattia si è già diffusa in Cina e altri 50 Paesi in tutto il mondo (Fig.2).</t>
+  </si>
+  <si>
+    <t>Il SARS-CoV-2 ha infettato persone di tutte l’età, ma principalmente fra i 30 e i 65 anni.</t>
+  </si>
+  <si>
+    <t>Il COVID-19 si è espanso per cluster principalmente nello Hubei e nelle sue vicinanze.</t>
+  </si>
+  <si>
+    <t>Il periodo medio tra l’esordio e il decesso era di 9,5 (4,8-13) giorni.</t>
+  </si>
+  <si>
+    <t>La mortalità dei pazienti con casi confermati era del 1,44% (95% CI: 1,10-1,86%), e la mortalità aggiustata di tutti i pazienti era del 3,06% (95% CI: 2,02-4,59%).</t>
+  </si>
+  <si>
+    <t>Essi possono essere divisi in quattro generi, ossia alfa, beta, gamma e delta, tra i quali gli alfa e i betacoronavirus sono noti per infettare gli esseri umani.</t>
+  </si>
+  <si>
+    <t>La prima sequenza genomica del SARS-CoV-2 è stata pubblicata il 10 gennaio 2020.</t>
+  </si>
+  <si>
+    <t>Attraverso la microscopia elettronica a trasmissione, le particelle di SARS-CoV-2 sono state rinvenute in sezioni ultrasottili dell’epitelio respiratorio umano.</t>
+  </si>
+  <si>
+    <t>Il SARS-CoV-2 può anche formare una nuova proteina corta codificata dalla orf3b e una proteina secreta codificata dalla orf8.</t>
+  </si>
+  <si>
+    <t>Hanno riscontrato che il complesso, che presenta conformazioni chiuse e aperte, è stato assemblato come dimero e che il complesso ACE2-B0AT1 può legare due proteine S, il che fornisce una prova del riconoscimento e dell’infezione del CoV.</t>
+  </si>
+  <si>
+    <t>È risaputo che sia il SARS-CoV che il MERS-CoV hanno avuto origine dai pipistrelli e sono stati trasmessi all’uomo tramite zibetti e cammelli, rispettivamente.</t>
+  </si>
+  <si>
+    <t>Ji, et al hanno proposto i serpenti come portatori del virus dai pipistrelli agli esseri umani, il che implicava una ricombinazione omologa della proteina S.</t>
+  </si>
+  <si>
+    <t>Le proprietà fisico-chimiche del SARS-CoV-2 rimangono ancora ampiamente sconosciute.</t>
+  </si>
+  <si>
+    <t>È stato riscontrato che il SARS-CoV-2 è sensibile ai raggi ultravioletti e al calore a 56 °C per 30 minuti; l’etere, l’etanolo al 75%, i disinfettanti contenenti cloro, l’acido peracetico, il cloroformio e altri solventi grassi, ma non la clorexidina, possono inattivare efficacemente il virus.</t>
+  </si>
+  <si>
+    <t>Pertanto, si può solo fare riferimento a studi precedenti su altri CoV, in particolare il SARS-CoV e il MERS-CoV (Fig. 4).</t>
+  </si>
+  <si>
+    <t>I linfociti T CD4+ stimolano i linfociti B a produrre anticorpi specifici per il virus, e i linfociti CD8+ uccidono direttamente le celle infettate dal virus.</t>
+  </si>
+  <si>
+    <t>Anche l’immunità umorale, che include complementi come C3a e C5a e gli anticorpi, è fondamentale per combattere l’infezione virale.</t>
+  </si>
+  <si>
+    <t>L’infezione da SARS-CoV-2, caratterizzata da esordio a cluster, colpisce con più probabilità gli anziani con comorbilità e le donne incinte.</t>
+  </si>
+  <si>
+    <t>Tuttavia, uno studio condotto su 1.099 casi dimostra che il periodo di incubazione era in media di 3 giorni e variava da 0 a 24 giorni.</t>
+  </si>
+  <si>
+    <t>Come pratica comune, di solito gli individui esposti al virus o infettati sono tenuti a sottoporsi a quarantena per 14 giorni.</t>
+  </si>
+  <si>
+    <t>Alcuni pazienti hanno manifestato dispnea e/o ipossiemia una settimana dopo l’esordio della malattia.</t>
+  </si>
+  <si>
+    <t>Uno studio di popolazione di fine dicembre 2019 illustrava che le percentuali dei sintomi erano di 98% per la febbre, 76% per la tosse secca, 55% per la dispnea e 3% per la diarrea; l’8% dei pazienti necessitava il supporto della ventilazione.</t>
+  </si>
+  <si>
+    <t>Tuttavia, l’80% di loro necessitava il supporto della ventilazione, molto più dei pazienti COVID-19, conformemente alla mortalità più alta della MERS rispetto a quella del COVID-19.</t>
+  </si>
+  <si>
+    <t>Al 14 febbraio, la mortalità del COVID-19 era del 2% quando i casi confermati hanno raggiunto i 66.576 in tutto il mondo.</t>
+  </si>
+  <si>
+    <t>Uno studio precedente ha riscontrato che l’R0 del SARS-CoV-2 era pari a 6,47 con un intervallo di confidenza (CI) del 95% di 5,71-7,23 , mentre l’R0 del SARS-CoV variava solo da 2 a 4.</t>
+  </si>
+  <si>
+    <t>Pertanto, è molto più complesso controllare l'epidemia di SARS-CoV-2 che quelle di MERS-CoV e di SARS-CoV.</t>
+  </si>
+  <si>
+    <t>Tuttavia, è stato riscontrato che le persone possono trasportare il virus senza sintomi per più di due settimane e che i pazienti curati dimessi dall’ospedale possono essere di nuovo infettati dal virus , un segnale di allarme che indica la necessità di allungare il periodo di quarantena.</t>
+  </si>
+  <si>
+    <t>I livelli di enzimi epatici e muscolari e di mioglobina erano aumentati nel sangue di alcuni pazienti, e la proteina C reattiva e la sedimentazione di eritrociti erano aumentati nel sangue della maggioranza dei pazienti.</t>
+  </si>
+  <si>
+    <t>I pazienti sviluppano spesso polmonite atipica, danni polmonari acuti e sindrome da distress respiratorio acuto (ARDS).</t>
+  </si>
+  <si>
+    <t>Pertanto, gli esiti radiografici peggiori sono spesso associati alla forma più grave della malattia.</t>
+  </si>
+  <si>
+    <t>Tuttavia, a causa dell’alto tasso di falsi negativi, che potrebbero accelerare l’epidemia, il 13 febbraio 2020 si è deciso di iniziare a utilizzare, in Cina, le manifestazioni cliniche ai fini della diagnosi (che non faceva più affidamento solamente sulla RT-PCR).</t>
+  </si>
+  <si>
+    <t>Il 14 febbraio 2020, il gruppo Feng Zhang ha descritto un protocollo della tecnica SHERLOCK basata su CRISPR per rilevare il SARS-CoV-2, che individua, in meno di un’ora e senza richiedere strumenti complessi , frammenti sintetici dell’RNA del SARS-CoV-2 tra 20 × 10-18 mol/L e 200 × 10-18 mol/L (10-100 copie per microlitro di campione) utilizzando una striscia reattiva.</t>
+  </si>
+  <si>
+    <t>Il SARS-CoV-2 all’inizio colpisce principalmente i polmoni e, probabilmente, attacca anche, in misura minore, altri organi che esprimono ACE2, come l’apparato gastrointestinale e i reni.</t>
+  </si>
+  <si>
+    <t>I pazienti con sintomi respiratori gravi devono essere supportati con ossigenazione extra-corporea a membrana (ECMO), una tecnica di bypass cardiopolmonare modificato utilizzata per il trattamento di insufficienza cardiaca o respiratoria potenzialmente letale.</t>
+  </si>
+  <si>
+    <t>La tempesta di citochine è una forma di risposta infiammatoria sistemica caratterizzata dal rilascio di una serie di citochine, tra cui TNFα, Il-1β, IL-2, IL-6, IFNα, IFNβ, IFNγ, e MCP-1.</t>
+  </si>
+  <si>
+    <t>I corticosteroidi e il tocilizumab, un anticorpo monoclonale inibitore dell’IL6, sono stati usati per trattare le tempeste di citochine.</t>
+  </si>
+  <si>
+    <t>Tuttavia, gli steroidi in alte dosi non sono stati benefici per i danni polmonari nei pazienti SARS e COVID-19.</t>
+  </si>
+  <si>
+    <t>Al momento della stesura di questa analisi, non è stata confermata alcuna terapia antivirale efficace.</t>
+  </si>
+  <si>
+    <t>In seguito il remdesivir si è rivelato anche un possibile inibitore di altri virus a filamento singolo di RNA, compresi i virus della SARS e della MERS.</t>
+  </si>
+  <si>
+    <t>A seguito di terapie combinate con il lopinavir/ritonavir  possono presentarsi diarrea, nausea, vomito, danni al fegato e altre reazioni avverse.</t>
+  </si>
+  <si>
+    <t>La raccolta del sangue di pazienti guariti da una malattia contagiosa per curare altri pazienti affetti dalla stessa malattia o per proteggere altri individui sani dal contrarre la malattia ha una lunga storia.</t>
+  </si>
+  <si>
+    <t>Sulla base di ciò, è stato raccolto il plasma dal sangue di un gruppo di pazienti guariti dal COVID-19 ed è stato iniettato a 10 pazienti gravemente ammalati.</t>
+  </si>
+  <si>
+    <t>Inoltre, visti gli effetti terapeutici, bisogna considerare attentamente alcuni svantaggi associati al plasma.</t>
+  </si>
+  <si>
+    <t>È difficile sviluppare e produrre anticorpi specifici abbastanza rapidamente da combattere un’epidemia globale.</t>
+  </si>
+  <si>
+    <t>La MTC viene utilizzata per curare una gamma di malattie in Cina da migliaia di anni.</t>
+  </si>
+  <si>
+    <t>Attualmente, per via della mancanza di una terapia efficace e specifica per il COVID-19, la MTC è diventata una delle principali cure alternative per i pazienti con sintomi da lievi a moderati o per coloro che sono guariti da stadi gravi.</t>
+  </si>
+  <si>
+    <t>Tuttavia, questo è un confronto piuttosto approssimativo, poiché molti fattori d’impatto come il numero e la gravità dei pazienti dovrebbero essere inclusi nella valutazione.</t>
+  </si>
+  <si>
+    <t>L’aspetto più impressionante è che il tasso di peggioramento sintomatico (da lieve a grave) era considerevolmente più basso per il gruppo MO+MTC che per il gruppo con solo MO (7,4% contro 46,2%) e la mortalità era più bassa nel gruppo MO+MTC che nel gruppo con solo MO (8,8% contro 39%).</t>
+  </si>
+  <si>
+    <t>I pazienti con COVID-19 sospetto o confermato manifestano per lo più una grande paura di questa malattia altamente contagiosa e perfino letale, e le persone in quarantena provano anche noia, solitudine e rabbia.</t>
+  </si>
+  <si>
+    <t>Il tracciamento dei contatti e la quarantena obbligatori, in quanto parte delle risposte della sanità pubblica all’epidemia di COVID-19, possono far sentire le persone più in ansia e più in colpa per gli effetti del contagio, la quarantena e lo stigma sulle loro famiglie e i loro amici.</t>
+  </si>
+  <si>
+    <t>Dei vaccini efficaci sono essenziali per interrompere la catena di trasmissione da serbatoi animali ed esseri umani infetti a ospiti suscettibili e sono spesso complementari ai trattamenti antivirali nel controllo delle epidemie causate da virus emergenti.</t>
+  </si>
+  <si>
+    <t>Tuttavia, prima di avviare uno studio clinico bisogna ancora determinare l’efficacia in vivo di questi vaccini candidati in individui anziani e nei modelli di esposizione letale e la loro protezione contro un’infezione da virus di origine zoonotica.</t>
+  </si>
+  <si>
+    <t>Sono state sviluppate strategie di vaccinazione per la MERS usando virus inattivati, plasmidi del DNA, vettori virali, nanoparticelle, particelle virus-simili e sub unità di proteine ricombinanti, e alcune sono state valutate in modelli animali.</t>
+  </si>
+  <si>
+    <t>In quanto nuova malattia, il COVID-19 ha appena iniziato a manifestare il suo intero decorso clinico in migliaia di pazienti.</t>
+  </si>
+  <si>
+    <t>Pertanto, costruire un modello di prognosi per la malattia è essenziale per le agenzie sanitarie per dare priorità ai loro servizi, specialmente in aree prive di risorse.</t>
+  </si>
+  <si>
+    <t>Il COVID-19 si è verificato principalmente in persone con età dai 30 ai 65 anni, con il 47,7% di questi pazienti con età superiore ai 50 anni in uno studio di 8.866 casi descritto in precedenza.</t>
+  </si>
+  <si>
+    <t>Comorbilità e complicazioni: I pazienti con il COVID-19 che necessitano cure intensive hanno più probabilità di essere affetti da danni cardiaci acuti e aritmia.</t>
+  </si>
+  <si>
+    <t>È opportuno notare che l’età e le patologie pregresse sono fortemente correlate e potrebbero interferire l’una con le altre.</t>
+  </si>
+  <si>
+    <t>Inoltre, anche elevati livelli di lattato deidrogenasi (LDH), aspartato aminotransferasi (AST), alanina aminotransferasi (ALT) e creatinchinasi (CK) potrebbero contribuire a prevedere l’esito.</t>
+  </si>
+  <si>
+    <t>Sintomi clinici principali: La radiografia toracica e la progressione temporale dei sintomi clinici dovrebbero essere prese in considerazione assieme agli altri sintomi nella previsione degli esiti e delle complicanze del COVID-19.</t>
+  </si>
+  <si>
+    <t>Pertanto, se necessario, gli steroidi dovrebbero essere utilizzati in basse dosi e per brevi periodi nei pazienti COVID-19.</t>
+  </si>
+  <si>
+    <t>Secondo gli studi di popolazione effettuati finora, il COVID-19 sembra avere caratteristiche epidemiologiche differenti da quelle della SARS.</t>
+  </si>
+  <si>
+    <t>Tuttavia, si riteneva che la trasmissione del SARS-CoV avvenisse quando i pazienti erano gravemente malati, mentre la maggior parte della trasmissione non si verificava nella prima fase.</t>
+  </si>
+  <si>
+    <t>Sebbene queste azioni stiano danneggiando drasticamente l’economia e altri settori del Paese, il numero di nuovi pazienti sta diminuendo, indicando un rallentamento dell’epidemia.</t>
+  </si>
+  <si>
+    <t>Paul Hunter, et al. hanno stimato che il COVID-19, che sembra sensibilmente più infettivo della SARS, non terminerà nel 2020.</t>
+  </si>
+  <si>
+    <t>Tuttavia, sono stati osservati segnali promettenti in Cina sulla base della diminuzione del numero dei nuovi casi, che indica che le strategie attuali potrebbero star funzionando.</t>
+  </si>
+  <si>
+    <t>È possibile che, analogamente al SARS-CoV, il SARS-CoV-2 possa indebolirsi in termini di infettività fino ad estinguersi o diventare un virus meno patogeno che coesiste con gli esseri umani.</t>
+  </si>
+  <si>
+    <t>Il virus è stato rinvenuto anche nelle feci, il che apre a una nuova possibilità di trasmissione oro-fecale.</t>
   </si>
 </sst>
 </file>
@@ -3469,7 +3766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3517,9 +3814,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3544,17 +3838,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3896,1324 +4181,1629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3536A1-5EAF-4D78-92D1-0A4F60B458EE}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="45.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.53125" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="28.9296875" customWidth="1"/>
-    <col min="5" max="5" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" customWidth="1"/>
+    <col min="3" max="3" width="44.53125" customWidth="1"/>
+    <col min="4" max="4" width="8.06640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.9296875" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10">
         <v>90</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="30">
+      <c r="D3" s="10">
         <v>89</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="30">
+      <c r="D4" s="10">
         <v>89</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="10">
         <v>90</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D6" s="10">
         <v>97</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="10">
+      <c r="D7" s="10">
         <v>93</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D8" s="10">
         <v>98</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D9" s="10">
         <v>100</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D10" s="10">
         <v>97</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="10">
+      <c r="D11" s="10">
         <v>89</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="10">
         <v>88</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="10">
+      <c r="D13" s="10">
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="10">
+      <c r="D14" s="10">
         <v>100</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="10">
+      <c r="D15" s="10">
         <v>100</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="10">
+      <c r="D16" s="10">
         <v>85</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="10">
+      <c r="D17" s="10">
         <v>97</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="10">
+      <c r="D18" s="10">
         <v>100</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="10">
+      <c r="D19" s="10">
         <v>90</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="10">
+      <c r="D20" s="10">
         <v>95</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="10">
+      <c r="D21" s="10">
         <v>86</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="10">
+      <c r="D22" s="10">
         <v>95</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="10">
+      <c r="D23" s="10">
         <v>95</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="10">
+      <c r="D24" s="10">
         <v>100</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="10">
+      <c r="D25" s="10">
         <v>100</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="10">
+      <c r="D26" s="10">
         <v>100</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="10">
+      <c r="D27" s="10">
         <v>93</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="10">
+      <c r="D28" s="10">
         <v>100</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="10">
+      <c r="D29" s="10">
         <v>96</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="10">
+      <c r="D30" s="10">
         <v>97</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="10">
+      <c r="D31" s="10">
         <v>100</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="10">
+      <c r="D32" s="10">
         <v>100</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="10">
+      <c r="D33" s="10">
         <v>50</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C34" s="10">
+      <c r="D34" s="10">
         <v>97</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="10">
+      <c r="D35" s="10">
         <v>100</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="10">
+      <c r="D36" s="10">
         <v>100</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="10">
+      <c r="D37" s="10">
         <v>94</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="10">
+      <c r="D38" s="10">
         <v>90</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="10">
+      <c r="D39" s="10">
         <v>96</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="10">
+      <c r="D40" s="10">
         <v>100</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="10">
+      <c r="D41" s="10">
         <v>100</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="10">
+      <c r="D42" s="10">
         <v>100</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="30">
+      <c r="D43" s="10">
         <v>95</v>
       </c>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="10">
+      <c r="D44" s="10">
         <v>100</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="10">
+      <c r="D45" s="10">
         <v>95</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="10">
+      <c r="D46" s="10">
         <v>100</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="10">
+      <c r="D47" s="10">
         <v>100</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="10">
+      <c r="D48" s="10">
         <v>100</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="10">
+      <c r="D49" s="10">
         <v>100</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="10">
+      <c r="D50" s="10">
         <v>95</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="10">
+      <c r="D51" s="10">
         <v>100</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="10">
+      <c r="D52" s="10">
         <v>100</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="10">
+      <c r="D53" s="10">
         <v>100</v>
       </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="10">
+      <c r="D54" s="10">
         <v>100</v>
       </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="10">
+      <c r="D55" s="10">
         <v>90</v>
       </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C56" s="10">
+      <c r="D56" s="10">
         <v>78</v>
       </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="10">
+      <c r="D57" s="10">
         <v>95</v>
       </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="10">
+      <c r="D58" s="10">
         <v>95</v>
       </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C59" s="10">
+      <c r="D59" s="10">
         <v>79</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="10">
+      <c r="D60" s="10">
         <v>100</v>
       </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="10">
+      <c r="D61" s="10">
         <v>90</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="10">
+      <c r="D62" s="10">
         <v>95</v>
       </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="10">
+      <c r="D63" s="10">
         <v>100</v>
       </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C64" s="10">
+      <c r="D64" s="10">
         <v>89</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="10">
         <v>95</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="10">
+      <c r="D66" s="10">
         <v>100</v>
       </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="10">
+      <c r="D67" s="10">
         <v>97</v>
       </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="10">
+      <c r="D68" s="10">
         <v>100</v>
       </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="10">
+      <c r="D69" s="10">
         <v>98</v>
       </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="10">
+      <c r="D70" s="10">
         <v>90</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="10">
+      <c r="D71" s="10">
         <v>100</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="10">
+      <c r="D72" s="10">
         <v>95</v>
       </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="10">
+      <c r="D73" s="10">
         <v>100</v>
       </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="10">
+      <c r="D74" s="10">
         <v>100</v>
       </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="10">
+      <c r="D75" s="10">
         <v>100</v>
       </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="10">
+      <c r="D76" s="10">
         <v>100</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="10">
+      <c r="D77" s="10">
         <v>100</v>
       </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="10">
+      <c r="D78" s="10">
         <v>100</v>
       </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="10">
+      <c r="D79" s="10">
         <v>96</v>
       </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="10">
+      <c r="D80" s="10">
         <v>100</v>
       </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="10">
+      <c r="D81" s="10">
         <v>79</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="10">
+      <c r="D82" s="10">
         <v>95</v>
       </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C83" s="10">
+      <c r="D83" s="10">
         <v>90</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C84" s="10">
+      <c r="D84" s="10">
         <v>88</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="10">
+      <c r="D85" s="10">
         <v>100</v>
       </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="10">
+      <c r="D86" s="10">
         <v>100</v>
       </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="10">
+      <c r="D87" s="10">
         <v>100</v>
       </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C88" s="10">
+      <c r="D88" s="10">
         <v>100</v>
       </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="10">
+      <c r="D89" s="10">
         <v>93</v>
       </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="10">
+      <c r="D90" s="10">
         <v>100</v>
       </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="10">
+      <c r="D91" s="10">
         <v>96</v>
       </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C92" s="10">
+      <c r="D92" s="10">
         <v>96</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="10">
+      <c r="D93" s="10">
         <v>100</v>
       </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="10">
+      <c r="D94" s="10">
         <v>100</v>
       </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="10">
+      <c r="D95" s="10">
         <v>100</v>
       </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C96" s="10">
+      <c r="D96" s="10">
         <v>86</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C97" s="10">
+      <c r="D97" s="10">
         <v>87</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="10">
+      <c r="D98" s="10">
         <v>94</v>
       </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C99" s="10">
+      <c r="D99" s="10">
         <v>87</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C100" s="10">
+      <c r="D100" s="10">
         <v>89</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C101" s="12">
+      <c r="D101" s="12">
         <v>95</v>
       </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B102" s="14" t="s">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B102" s="1"/>
+      <c r="C102" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C102" s="15">
-        <f>AVERAGE(C1:C101)</f>
+      <c r="D102" s="15">
+        <f>AVERAGE(D1:D101)</f>
         <v>94.88</v>
       </c>
-      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5221,1297 +5811,1601 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D805F11-42E2-4E56-A62F-FAB6C2011772}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="45.59765625" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="6" width="32.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="45.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.06640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="7" max="7" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="28">
+      <c r="D2" s="21">
         <v>90</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="28">
+      <c r="D3" s="21">
         <v>85</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="22">
+      <c r="D4" s="21">
         <v>100</v>
       </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="22">
+      <c r="D5" s="21">
         <v>100</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="22">
+      <c r="D6" s="21">
         <v>100</v>
       </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="28">
+      <c r="D7" s="21">
         <v>90</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="22">
+      <c r="D8" s="21">
         <v>100</v>
       </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="22">
+      <c r="D9" s="21">
         <v>100</v>
       </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="22">
+      <c r="D10" s="21">
         <v>100</v>
       </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="28">
+      <c r="D11" s="21">
         <v>90</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="E11" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C12" s="28">
+      <c r="D12" s="21">
         <v>92</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="22">
+      <c r="D13" s="21">
         <v>89</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="22">
+      <c r="D14" s="21">
         <v>94</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="22">
+      <c r="D15" s="21">
         <v>100</v>
       </c>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="22">
+      <c r="D16" s="21">
         <v>90</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="22">
+      <c r="D17" s="21">
         <v>93</v>
       </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="22">
+      <c r="D18" s="21">
         <v>93</v>
       </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="28">
+      <c r="D19" s="21">
         <v>89</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="22">
+      <c r="D20" s="21">
         <v>94</v>
       </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="22">
+      <c r="D21" s="21">
         <v>93</v>
       </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="22">
+      <c r="D22" s="21">
         <v>89</v>
       </c>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="28">
+      <c r="D23" s="21">
         <v>89</v>
       </c>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="22">
+      <c r="D24" s="21">
         <v>100</v>
       </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="22">
+      <c r="D25" s="21">
         <v>96</v>
       </c>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="22">
+      <c r="D26" s="21">
         <v>90</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="28">
+      <c r="D27" s="21">
         <v>90</v>
       </c>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="22">
+      <c r="D28" s="21">
         <v>97</v>
       </c>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="22">
+      <c r="D29" s="21">
         <v>90</v>
       </c>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="22">
+      <c r="D30" s="21">
         <v>90</v>
       </c>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="22">
+      <c r="D31" s="21">
         <v>100</v>
       </c>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="22">
+      <c r="D32" s="21">
         <v>90</v>
       </c>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="22">
+      <c r="D33" s="21">
         <v>100</v>
       </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C34" s="22">
+      <c r="D34" s="21">
         <v>92</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="22">
+      <c r="D35" s="21">
         <v>89</v>
       </c>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="22">
+      <c r="D36" s="21">
         <v>100</v>
       </c>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="22">
+      <c r="D37" s="21">
         <v>100</v>
       </c>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="22">
+      <c r="D38" s="21">
         <v>91</v>
       </c>
-      <c r="D38" s="25"/>
-    </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="22">
+      <c r="D39" s="21">
         <v>100</v>
       </c>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="22">
+      <c r="D40" s="21">
         <v>100</v>
       </c>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="22">
+      <c r="D41" s="21">
         <v>89</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="22">
+      <c r="D42" s="21">
         <v>97</v>
       </c>
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="28">
+      <c r="D43" s="21">
         <v>90</v>
       </c>
-      <c r="D43" s="25"/>
-    </row>
-    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="22">
+      <c r="D44" s="21">
         <v>100</v>
       </c>
-      <c r="D44" s="25"/>
-    </row>
-    <row r="45" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="22">
+      <c r="D45" s="21">
         <v>97</v>
       </c>
-      <c r="D45" s="25"/>
-    </row>
-    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="22">
+      <c r="D46" s="21">
         <v>100</v>
       </c>
-      <c r="D46" s="25"/>
-    </row>
-    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="21">
         <v>100</v>
       </c>
-      <c r="D47" s="25"/>
-    </row>
-    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="22">
+      <c r="D48" s="21">
         <v>90</v>
       </c>
-      <c r="D48" s="25"/>
-    </row>
-    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="22">
+      <c r="D49" s="21">
         <v>100</v>
       </c>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C50" s="28">
+      <c r="D50" s="21">
         <v>89</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="22">
+      <c r="D51" s="21">
         <v>97</v>
       </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C52" s="22">
+      <c r="D52" s="21">
         <v>85</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="E52" s="24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="22">
+      <c r="D53" s="21">
         <v>100</v>
       </c>
-      <c r="D53" s="25"/>
-    </row>
-    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C54" s="22">
+      <c r="D54" s="21">
         <v>90</v>
       </c>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="22">
+      <c r="D55" s="21">
         <v>89</v>
       </c>
-      <c r="D55" s="25"/>
-    </row>
-    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="22">
+      <c r="D56" s="21">
         <v>87</v>
       </c>
-      <c r="D56" s="25"/>
-    </row>
-    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="22">
+      <c r="D57" s="21">
         <v>95</v>
       </c>
-      <c r="D57" s="25"/>
-    </row>
-    <row r="58" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="22">
+      <c r="D58" s="21">
         <v>95</v>
       </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="22">
+      <c r="D59" s="21">
         <v>90</v>
       </c>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="22">
+      <c r="D60" s="21">
         <v>98</v>
       </c>
-      <c r="D60" s="25"/>
-    </row>
-    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E60" s="24"/>
+    </row>
+    <row r="61" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="22">
+      <c r="D61" s="21">
         <v>94</v>
       </c>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C62" s="28">
+      <c r="D62" s="21">
         <v>90</v>
       </c>
-      <c r="D62" s="25"/>
-    </row>
-    <row r="63" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C63" s="22">
+      <c r="D63" s="21">
         <v>94</v>
       </c>
-      <c r="D63" s="25"/>
-    </row>
-    <row r="64" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C64" s="22">
+      <c r="D64" s="21">
         <v>88</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="E64" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="22">
+      <c r="D65" s="21">
         <v>97</v>
       </c>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="22">
+      <c r="D66" s="21">
         <v>98</v>
       </c>
-      <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="28">
+      <c r="D67" s="21">
         <v>96</v>
       </c>
-      <c r="D67" s="25"/>
-    </row>
-    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="22">
+      <c r="D68" s="21">
         <v>100</v>
       </c>
-      <c r="D68" s="25"/>
-    </row>
-    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="22">
+      <c r="D69" s="21">
         <v>98</v>
       </c>
-      <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="22">
+      <c r="D70" s="21">
         <v>98</v>
       </c>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="22">
+      <c r="D71" s="21">
         <v>96</v>
       </c>
-      <c r="D71" s="25"/>
-    </row>
-    <row r="72" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="22">
+      <c r="D72" s="21">
         <v>90</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="E72" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="22">
+      <c r="D73" s="21">
         <v>100</v>
       </c>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="22">
+      <c r="D74" s="21">
         <v>100</v>
       </c>
-      <c r="D74" s="25"/>
-    </row>
-    <row r="75" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C75" s="22">
+      <c r="D75" s="21">
         <v>95</v>
       </c>
-      <c r="D75" s="25"/>
-    </row>
-    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="22">
+      <c r="D76" s="21">
         <v>97</v>
       </c>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C77" s="22">
+      <c r="D77" s="21">
         <v>100</v>
       </c>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="22">
+      <c r="D78" s="21">
         <v>97</v>
       </c>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C79" s="22">
+      <c r="D79" s="21">
         <v>89</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="E79" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C80" s="22">
+      <c r="D80" s="21">
         <v>97</v>
       </c>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="22">
+      <c r="D81" s="21">
         <v>94</v>
       </c>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C82" s="22">
+      <c r="D82" s="21">
         <v>93</v>
       </c>
-      <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E82" s="24"/>
+    </row>
+    <row r="83" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C83" s="22">
+      <c r="D83" s="21">
         <v>94</v>
       </c>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C84" s="22">
+      <c r="D84" s="21">
         <v>90</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="E84" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C85" s="22">
+      <c r="D85" s="21">
         <v>93</v>
       </c>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C86" s="22">
+      <c r="D86" s="21">
         <v>93</v>
       </c>
-      <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C87" s="22">
+      <c r="D87" s="21">
         <v>89</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="E87" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C88" s="22">
+      <c r="D88" s="21">
         <v>100</v>
       </c>
-      <c r="D88" s="25"/>
-    </row>
-    <row r="89" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C89" s="22">
+      <c r="D89" s="21">
         <v>90</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="E89" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C90" s="22">
+      <c r="D90" s="21">
         <v>90</v>
       </c>
-      <c r="D90" s="25"/>
-    </row>
-    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="22">
+      <c r="D91" s="21">
         <v>92</v>
       </c>
-      <c r="D91" s="25"/>
-    </row>
-    <row r="92" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="22">
+      <c r="D92" s="21">
         <v>94</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="E92" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="22">
+      <c r="D93" s="21">
         <v>89</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="E93" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C94" s="22">
+      <c r="D94" s="21">
         <v>100</v>
       </c>
-      <c r="D94" s="25"/>
-    </row>
-    <row r="95" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C95" s="22">
+      <c r="D95" s="21">
         <v>100</v>
       </c>
-      <c r="D95" s="25"/>
-    </row>
-    <row r="96" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="22">
+      <c r="D96" s="21">
         <v>88</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="E96" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C97" s="22">
+      <c r="D97" s="21">
         <v>89</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="E97" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C98" s="22">
+      <c r="D98" s="21">
         <v>94</v>
       </c>
-      <c r="D98" s="25"/>
-    </row>
-    <row r="99" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="22">
+      <c r="D99" s="21">
         <v>89</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="E99" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C100" s="22">
+      <c r="D100" s="21">
         <v>97</v>
       </c>
-      <c r="D100" s="25"/>
-    </row>
-    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C101" s="22">
+      <c r="D101" s="21">
         <v>90</v>
       </c>
-      <c r="D101" s="25"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="1"/>
+      <c r="C102" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C102" s="20">
-        <f>AVERAGE(C2:C101)</f>
+      <c r="D102" s="19">
+        <f>AVERAGE(D2:D101)</f>
         <v>94.15</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B103" s="13"/>
-      <c r="C103" s="23"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C103" s="13"/>
+      <c r="D103" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/manual_eval.xlsx
+++ b/manual_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c8f7f178107f2a6/Desktop/Tesi (finalmente)/Esperimenti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1168" documentId="8_{B6F10F42-CA86-454D-9D55-A65CA7B0FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144E4513-18F0-403C-AC36-238BE312621D}"/>
+  <xr:revisionPtr revIDLastSave="1170" documentId="8_{B6F10F42-CA86-454D-9D55-A65CA7B0FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38735E1-A61A-4A43-99C1-B02B33BF9EAF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D2DF1649-3C30-4C91-AF38-1B3B12A0CA17}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{D2DF1649-3C30-4C91-AF38-1B3B12A0CA17}"/>
   </bookViews>
   <sheets>
     <sheet name="ModernMT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="370">
   <si>
     <t>Source</t>
   </si>
@@ -3349,303 +3349,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Reference Translation</t>
-  </si>
-  <si>
-    <t>Stime Preliminari sulla Prevalenza di Patologie Pregresse Selezionate tra Pazienti affetti da Malattia da Coronavirus 2019 — Stati Uniti, 12 febbraio -— 28 marzo 2020</t>
-  </si>
-  <si>
-    <t>I report dalla Cina e dall’Italia suggeriscono che i fattori di rischio di malattia grave includono l’età avanzata e la presenza di almeno una tra alcune patologie pregresse.</t>
-  </si>
-  <si>
-    <t>Di questi 7.162 casi, 2.692 (37,6%) pazienti erano affetti da una o più patologie pregresse o fattori di rischio, e 4.470 (62,4%) non presentavano alcuna condizione tra quelle segnalate.</t>
-  </si>
-  <si>
-    <t>Questi risultati preliminari suggeriscono che, negli Stati Uniti, le persone con patologie pregresse o altri fattori di rischio riconosciuti per complicanze gravi da infezioni respiratorie presentino un maggiore rischio di malattia grave da COVID-19 rispetto alle persone senza queste patologie.</t>
-  </si>
-  <si>
-    <t>Quanto ai casi con dati mancanti sull’insorgenza, la data dell’insorgenza è stata stimata sottraendo 4 giorni (intervallo mediano tra l’insorgenza dei sintomi e la data di raccolta dei campioni tra i casi con date note in questi dati) dalla prima raccolta di campioni.</t>
-  </si>
-  <si>
-    <t>Sono state calcolate le percentuali dei pazienti di tutte le età con patologie pregresse che non sono stati ospedalizzati, che sono stati ospedalizzati senza ammissione in UTI, e che sono stati ospedalizzati con ammissione in UTI.</t>
-  </si>
-  <si>
-    <t>Per tenere conto dei dati mancanti in questi report preliminari, gli intervalli sono stati stimati con un limite inferiore comprendente come denominatore i casi sia con stato conosciuto che sconosciuto sull’ospedalizzazione con e senza ricovero in UTI, e un limite superiore che utilizzava come denominatore solo i casi con stato dell’esito conosciuto.</t>
-  </si>
-  <si>
-    <t>Sono stati consegnati ai CDC moduli di segnalazione per 74.439 (60,7%) casi.</t>
-  </si>
-  <si>
-    <t>Il diabete mellito (784, 10,9%), malattie polmonari croniche (656, 9,2%), e malattie cardiovascolari (647, 9,0%) erano le patologie segnalate più spesso tra tutti i casi.</t>
-  </si>
-  <si>
-    <t>Tra i pazienti di età ≥19 anni, la percentuale di ospedalizzazioni senza ricovero in UTI era più alta tra le persone affette da patologie pregresse (27,3% - 29,8%) che tra quelle che ne erano prive (7,2% - 7,8%); anche la percentuale di casi che hanno portato a ricovero in UTI era più alta per le persone con patologie pregresse (13,3% - 14,5%) che per quelle che non ne presentavano (2,2% - 2,4%) (Tabella 2).</t>
-  </si>
-  <si>
-    <t>Tra tutti i pazienti COVID-19 con informazioni complete sulle patologie pregresse o sui fattori di rischio, si sono verificati 184 decessi (tutti tra pazienti di età ≥19 anni); 173 di questi (94%) sono stati registrati tra pazienti con almeno una condizione pregressa.</t>
-  </si>
-  <si>
-    <t>Questa analisi è stata limitata da numeri esigui e dati mancanti a causa dell’onere imposto ai dipartimenti sanitari di segnalare i numeri di casi in rapido aumento, e i risultati potrebbero cambiare quando saranno disponibili ulteriori dati.</t>
-  </si>
-  <si>
-    <t>La prevalenza della BPCO negli adulti negli Stati Uniti era del 5,9%, e nel 2018 la prevalenza stimata dell’asma corrente tra le persone di tutte le età era del 7,9%.</t>
-  </si>
-  <si>
-    <t>I risultati di questo report sono soggetti almeno a sei limitazioni.</t>
-  </si>
-  <si>
-    <t>Non si può presumere che i casi con informazioni mancanti siano simili a quelli con dati sulle ospedalizzazioni o sulle patologie pregresse.</t>
-  </si>
-  <si>
-    <t>In terzo luogo, a causa della disponibilità limitata di test diagnostici in molte giurisdizioni nel periodo considerato, questa analisi è probabilmente orientata a favore dei casi più gravi, e i risultati potrebbero cambiare quando i test diagnostici saranno più diffusi.</t>
-  </si>
-  <si>
-    <t>Ad esempio, l’asma e la BPCO sono state incluse nella categoria delle malattie polmonari croniche.</t>
-  </si>
-  <si>
-    <t>Le persone con patologie pregresse che presentano sintomi di COVID-19, compresi febbre, tosse o fiato corto, devono contattare il proprio fornitore di assistenza sanitaria.</t>
-  </si>
-  <si>
-    <t>Tutte le persone devono adottare misure per proteggere sé stesse e gli altri dal COVID-19.</t>
-  </si>
-  <si>
-    <t>Le strategie di attenuazione comunitarie, che mirano a ridurre la diffusione del COVID-19, sono essenziali per proteggere tutte le persone dal COVID-19 affette da patologie pregresse e altre persone a rischio di malattia grave associata al COVID-19 (https://www.cdc.gov/coronavirus/2019-ncov/downloads/community-mitigation-strategy.pdf).</t>
-  </si>
-  <si>
-    <t>Cosa viene aggiunto da questo report?</t>
-  </si>
-  <si>
-    <t>Le strategie per proteggere tutte le persone, specialmente quelle affette da patologie pregresse, come il distanziamento sociale e il lavarsi le mani, devono essere adottate da tutte le comunità e tutte le persone per contribuire a rallentare la diffusione del COVID-19.</t>
-  </si>
-  <si>
-    <t>Tuttavia, il COVID-19 ha una gravità e una mortalità inferiori rispetto alla SARS, pur essendo molto più trasmissibile, e colpisce più gli anziani che i giovani, e più gli uomini che le donne.</t>
-  </si>
-  <si>
-    <t>Sebbene molte domande necessitino ancora delle risposte, si spera che questa rassegna possa aiutare a comprendere ed eradicare questa malattia minacciosa.</t>
-  </si>
-  <si>
-    <t>L’epidemia ha avuto inizio a Wuhan, in Cina, e si è diffusa velocemente per l’intero Paese e in altri 50 Paesi in tutto il mondo.</t>
-  </si>
-  <si>
-    <t>Secondo PubMed (https://www.ncbi.nlm nih.gov/pubmed/), dal primo report del 7 gennaio 2020 che ha determinato la sequenza del virus isolato da diversi pazienti , in meno di due mesi sono stati pubblicati oltre 200 articoli sul COVID-19 comprendenti la sua virologia, epidemiologia, eziologia, diagnosi e cura.</t>
-  </si>
-  <si>
-    <t>Verrà discusso anche ciò che si è appreso finora circa la prevenzione e la prognosi della malattia, insieme ad alcuni interrogativi urgenti ancora senza risposta.</t>
-  </si>
-  <si>
-    <t>Pertanto, quella di COVID-19 è la terza epidemia di coronavirus nella storia umana documentata.</t>
-  </si>
-  <si>
-    <t>Il 15 gennaio 2020 è stato registrato il primo caso fatale a Wuhan.</t>
-  </si>
-  <si>
-    <t>Il 23 gennaio, la città di Wuhan è stata chiusa e tutto il suo trasporto pubblico è stato sospeso.</t>
-  </si>
-  <si>
-    <t>Al momento della stesura di questo report, la malattia si è già diffusa in Cina e altri 50 Paesi in tutto il mondo (Fig.2).</t>
-  </si>
-  <si>
-    <t>Il SARS-CoV-2 ha infettato persone di tutte l’età, ma principalmente fra i 30 e i 65 anni.</t>
-  </si>
-  <si>
-    <t>Il COVID-19 si è espanso per cluster principalmente nello Hubei e nelle sue vicinanze.</t>
-  </si>
-  <si>
-    <t>Il periodo medio tra l’esordio e il decesso era di 9,5 (4,8-13) giorni.</t>
-  </si>
-  <si>
-    <t>La mortalità dei pazienti con casi confermati era del 1,44% (95% CI: 1,10-1,86%), e la mortalità aggiustata di tutti i pazienti era del 3,06% (95% CI: 2,02-4,59%).</t>
-  </si>
-  <si>
-    <t>Essi possono essere divisi in quattro generi, ossia alfa, beta, gamma e delta, tra i quali gli alfa e i betacoronavirus sono noti per infettare gli esseri umani.</t>
-  </si>
-  <si>
-    <t>La prima sequenza genomica del SARS-CoV-2 è stata pubblicata il 10 gennaio 2020.</t>
-  </si>
-  <si>
-    <t>Attraverso la microscopia elettronica a trasmissione, le particelle di SARS-CoV-2 sono state rinvenute in sezioni ultrasottili dell’epitelio respiratorio umano.</t>
-  </si>
-  <si>
-    <t>Il SARS-CoV-2 può anche formare una nuova proteina corta codificata dalla orf3b e una proteina secreta codificata dalla orf8.</t>
-  </si>
-  <si>
-    <t>Hanno riscontrato che il complesso, che presenta conformazioni chiuse e aperte, è stato assemblato come dimero e che il complesso ACE2-B0AT1 può legare due proteine S, il che fornisce una prova del riconoscimento e dell’infezione del CoV.</t>
-  </si>
-  <si>
-    <t>È risaputo che sia il SARS-CoV che il MERS-CoV hanno avuto origine dai pipistrelli e sono stati trasmessi all’uomo tramite zibetti e cammelli, rispettivamente.</t>
-  </si>
-  <si>
-    <t>Ji, et al hanno proposto i serpenti come portatori del virus dai pipistrelli agli esseri umani, il che implicava una ricombinazione omologa della proteina S.</t>
-  </si>
-  <si>
-    <t>Le proprietà fisico-chimiche del SARS-CoV-2 rimangono ancora ampiamente sconosciute.</t>
-  </si>
-  <si>
-    <t>È stato riscontrato che il SARS-CoV-2 è sensibile ai raggi ultravioletti e al calore a 56 °C per 30 minuti; l’etere, l’etanolo al 75%, i disinfettanti contenenti cloro, l’acido peracetico, il cloroformio e altri solventi grassi, ma non la clorexidina, possono inattivare efficacemente il virus.</t>
-  </si>
-  <si>
-    <t>Pertanto, si può solo fare riferimento a studi precedenti su altri CoV, in particolare il SARS-CoV e il MERS-CoV (Fig. 4).</t>
-  </si>
-  <si>
-    <t>I linfociti T CD4+ stimolano i linfociti B a produrre anticorpi specifici per il virus, e i linfociti CD8+ uccidono direttamente le celle infettate dal virus.</t>
-  </si>
-  <si>
-    <t>Anche l’immunità umorale, che include complementi come C3a e C5a e gli anticorpi, è fondamentale per combattere l’infezione virale.</t>
-  </si>
-  <si>
-    <t>L’infezione da SARS-CoV-2, caratterizzata da esordio a cluster, colpisce con più probabilità gli anziani con comorbilità e le donne incinte.</t>
-  </si>
-  <si>
-    <t>Tuttavia, uno studio condotto su 1.099 casi dimostra che il periodo di incubazione era in media di 3 giorni e variava da 0 a 24 giorni.</t>
-  </si>
-  <si>
-    <t>Come pratica comune, di solito gli individui esposti al virus o infettati sono tenuti a sottoporsi a quarantena per 14 giorni.</t>
-  </si>
-  <si>
-    <t>Alcuni pazienti hanno manifestato dispnea e/o ipossiemia una settimana dopo l’esordio della malattia.</t>
-  </si>
-  <si>
-    <t>Uno studio di popolazione di fine dicembre 2019 illustrava che le percentuali dei sintomi erano di 98% per la febbre, 76% per la tosse secca, 55% per la dispnea e 3% per la diarrea; l’8% dei pazienti necessitava il supporto della ventilazione.</t>
-  </si>
-  <si>
-    <t>Tuttavia, l’80% di loro necessitava il supporto della ventilazione, molto più dei pazienti COVID-19, conformemente alla mortalità più alta della MERS rispetto a quella del COVID-19.</t>
-  </si>
-  <si>
-    <t>Al 14 febbraio, la mortalità del COVID-19 era del 2% quando i casi confermati hanno raggiunto i 66.576 in tutto il mondo.</t>
-  </si>
-  <si>
-    <t>Uno studio precedente ha riscontrato che l’R0 del SARS-CoV-2 era pari a 6,47 con un intervallo di confidenza (CI) del 95% di 5,71-7,23 , mentre l’R0 del SARS-CoV variava solo da 2 a 4.</t>
-  </si>
-  <si>
-    <t>Pertanto, è molto più complesso controllare l'epidemia di SARS-CoV-2 che quelle di MERS-CoV e di SARS-CoV.</t>
-  </si>
-  <si>
-    <t>Tuttavia, è stato riscontrato che le persone possono trasportare il virus senza sintomi per più di due settimane e che i pazienti curati dimessi dall’ospedale possono essere di nuovo infettati dal virus , un segnale di allarme che indica la necessità di allungare il periodo di quarantena.</t>
-  </si>
-  <si>
-    <t>I livelli di enzimi epatici e muscolari e di mioglobina erano aumentati nel sangue di alcuni pazienti, e la proteina C reattiva e la sedimentazione di eritrociti erano aumentati nel sangue della maggioranza dei pazienti.</t>
-  </si>
-  <si>
-    <t>I pazienti sviluppano spesso polmonite atipica, danni polmonari acuti e sindrome da distress respiratorio acuto (ARDS).</t>
-  </si>
-  <si>
-    <t>Pertanto, gli esiti radiografici peggiori sono spesso associati alla forma più grave della malattia.</t>
-  </si>
-  <si>
-    <t>Tuttavia, a causa dell’alto tasso di falsi negativi, che potrebbero accelerare l’epidemia, il 13 febbraio 2020 si è deciso di iniziare a utilizzare, in Cina, le manifestazioni cliniche ai fini della diagnosi (che non faceva più affidamento solamente sulla RT-PCR).</t>
-  </si>
-  <si>
-    <t>Il 14 febbraio 2020, il gruppo Feng Zhang ha descritto un protocollo della tecnica SHERLOCK basata su CRISPR per rilevare il SARS-CoV-2, che individua, in meno di un’ora e senza richiedere strumenti complessi , frammenti sintetici dell’RNA del SARS-CoV-2 tra 20 × 10-18 mol/L e 200 × 10-18 mol/L (10-100 copie per microlitro di campione) utilizzando una striscia reattiva.</t>
-  </si>
-  <si>
-    <t>Il SARS-CoV-2 all’inizio colpisce principalmente i polmoni e, probabilmente, attacca anche, in misura minore, altri organi che esprimono ACE2, come l’apparato gastrointestinale e i reni.</t>
-  </si>
-  <si>
-    <t>I pazienti con sintomi respiratori gravi devono essere supportati con ossigenazione extra-corporea a membrana (ECMO), una tecnica di bypass cardiopolmonare modificato utilizzata per il trattamento di insufficienza cardiaca o respiratoria potenzialmente letale.</t>
-  </si>
-  <si>
-    <t>La tempesta di citochine è una forma di risposta infiammatoria sistemica caratterizzata dal rilascio di una serie di citochine, tra cui TNFα, Il-1β, IL-2, IL-6, IFNα, IFNβ, IFNγ, e MCP-1.</t>
-  </si>
-  <si>
-    <t>I corticosteroidi e il tocilizumab, un anticorpo monoclonale inibitore dell’IL6, sono stati usati per trattare le tempeste di citochine.</t>
-  </si>
-  <si>
-    <t>Tuttavia, gli steroidi in alte dosi non sono stati benefici per i danni polmonari nei pazienti SARS e COVID-19.</t>
-  </si>
-  <si>
-    <t>Al momento della stesura di questa analisi, non è stata confermata alcuna terapia antivirale efficace.</t>
-  </si>
-  <si>
-    <t>In seguito il remdesivir si è rivelato anche un possibile inibitore di altri virus a filamento singolo di RNA, compresi i virus della SARS e della MERS.</t>
-  </si>
-  <si>
-    <t>A seguito di terapie combinate con il lopinavir/ritonavir  possono presentarsi diarrea, nausea, vomito, danni al fegato e altre reazioni avverse.</t>
-  </si>
-  <si>
-    <t>La raccolta del sangue di pazienti guariti da una malattia contagiosa per curare altri pazienti affetti dalla stessa malattia o per proteggere altri individui sani dal contrarre la malattia ha una lunga storia.</t>
-  </si>
-  <si>
-    <t>Sulla base di ciò, è stato raccolto il plasma dal sangue di un gruppo di pazienti guariti dal COVID-19 ed è stato iniettato a 10 pazienti gravemente ammalati.</t>
-  </si>
-  <si>
-    <t>Inoltre, visti gli effetti terapeutici, bisogna considerare attentamente alcuni svantaggi associati al plasma.</t>
-  </si>
-  <si>
-    <t>È difficile sviluppare e produrre anticorpi specifici abbastanza rapidamente da combattere un’epidemia globale.</t>
-  </si>
-  <si>
-    <t>La MTC viene utilizzata per curare una gamma di malattie in Cina da migliaia di anni.</t>
-  </si>
-  <si>
-    <t>Attualmente, per via della mancanza di una terapia efficace e specifica per il COVID-19, la MTC è diventata una delle principali cure alternative per i pazienti con sintomi da lievi a moderati o per coloro che sono guariti da stadi gravi.</t>
-  </si>
-  <si>
-    <t>Tuttavia, questo è un confronto piuttosto approssimativo, poiché molti fattori d’impatto come il numero e la gravità dei pazienti dovrebbero essere inclusi nella valutazione.</t>
-  </si>
-  <si>
-    <t>L’aspetto più impressionante è che il tasso di peggioramento sintomatico (da lieve a grave) era considerevolmente più basso per il gruppo MO+MTC che per il gruppo con solo MO (7,4% contro 46,2%) e la mortalità era più bassa nel gruppo MO+MTC che nel gruppo con solo MO (8,8% contro 39%).</t>
-  </si>
-  <si>
-    <t>I pazienti con COVID-19 sospetto o confermato manifestano per lo più una grande paura di questa malattia altamente contagiosa e perfino letale, e le persone in quarantena provano anche noia, solitudine e rabbia.</t>
-  </si>
-  <si>
-    <t>Il tracciamento dei contatti e la quarantena obbligatori, in quanto parte delle risposte della sanità pubblica all’epidemia di COVID-19, possono far sentire le persone più in ansia e più in colpa per gli effetti del contagio, la quarantena e lo stigma sulle loro famiglie e i loro amici.</t>
-  </si>
-  <si>
-    <t>Dei vaccini efficaci sono essenziali per interrompere la catena di trasmissione da serbatoi animali ed esseri umani infetti a ospiti suscettibili e sono spesso complementari ai trattamenti antivirali nel controllo delle epidemie causate da virus emergenti.</t>
-  </si>
-  <si>
-    <t>Tuttavia, prima di avviare uno studio clinico bisogna ancora determinare l’efficacia in vivo di questi vaccini candidati in individui anziani e nei modelli di esposizione letale e la loro protezione contro un’infezione da virus di origine zoonotica.</t>
-  </si>
-  <si>
-    <t>Sono state sviluppate strategie di vaccinazione per la MERS usando virus inattivati, plasmidi del DNA, vettori virali, nanoparticelle, particelle virus-simili e sub unità di proteine ricombinanti, e alcune sono state valutate in modelli animali.</t>
-  </si>
-  <si>
-    <t>In quanto nuova malattia, il COVID-19 ha appena iniziato a manifestare il suo intero decorso clinico in migliaia di pazienti.</t>
-  </si>
-  <si>
-    <t>Pertanto, costruire un modello di prognosi per la malattia è essenziale per le agenzie sanitarie per dare priorità ai loro servizi, specialmente in aree prive di risorse.</t>
-  </si>
-  <si>
-    <t>Il COVID-19 si è verificato principalmente in persone con età dai 30 ai 65 anni, con il 47,7% di questi pazienti con età superiore ai 50 anni in uno studio di 8.866 casi descritto in precedenza.</t>
-  </si>
-  <si>
-    <t>Comorbilità e complicazioni: I pazienti con il COVID-19 che necessitano cure intensive hanno più probabilità di essere affetti da danni cardiaci acuti e aritmia.</t>
-  </si>
-  <si>
-    <t>È opportuno notare che l’età e le patologie pregresse sono fortemente correlate e potrebbero interferire l’una con le altre.</t>
-  </si>
-  <si>
-    <t>Inoltre, anche elevati livelli di lattato deidrogenasi (LDH), aspartato aminotransferasi (AST), alanina aminotransferasi (ALT) e creatinchinasi (CK) potrebbero contribuire a prevedere l’esito.</t>
-  </si>
-  <si>
-    <t>Sintomi clinici principali: La radiografia toracica e la progressione temporale dei sintomi clinici dovrebbero essere prese in considerazione assieme agli altri sintomi nella previsione degli esiti e delle complicanze del COVID-19.</t>
-  </si>
-  <si>
-    <t>Pertanto, se necessario, gli steroidi dovrebbero essere utilizzati in basse dosi e per brevi periodi nei pazienti COVID-19.</t>
-  </si>
-  <si>
-    <t>Secondo gli studi di popolazione effettuati finora, il COVID-19 sembra avere caratteristiche epidemiologiche differenti da quelle della SARS.</t>
-  </si>
-  <si>
-    <t>Tuttavia, si riteneva che la trasmissione del SARS-CoV avvenisse quando i pazienti erano gravemente malati, mentre la maggior parte della trasmissione non si verificava nella prima fase.</t>
-  </si>
-  <si>
-    <t>Sebbene queste azioni stiano danneggiando drasticamente l’economia e altri settori del Paese, il numero di nuovi pazienti sta diminuendo, indicando un rallentamento dell’epidemia.</t>
-  </si>
-  <si>
-    <t>Paul Hunter, et al. hanno stimato che il COVID-19, che sembra sensibilmente più infettivo della SARS, non terminerà nel 2020.</t>
-  </si>
-  <si>
-    <t>Tuttavia, sono stati osservati segnali promettenti in Cina sulla base della diminuzione del numero dei nuovi casi, che indica che le strategie attuali potrebbero star funzionando.</t>
-  </si>
-  <si>
-    <t>È possibile che, analogamente al SARS-CoV, il SARS-CoV-2 possa indebolirsi in termini di infettività fino ad estinguersi o diventare un virus meno patogeno che coesiste con gli esseri umani.</t>
-  </si>
-  <si>
-    <t>Il virus è stato rinvenuto anche nelle feci, il che apre a una nuova possibilità di trasmissione oro-fecale.</t>
   </si>
 </sst>
 </file>
@@ -4181,1629 +3884,1324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3536A1-5EAF-4D78-92D1-0A4F60B458EE}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="45.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.59765625" customWidth="1"/>
-    <col min="3" max="3" width="44.53125" customWidth="1"/>
-    <col min="4" max="4" width="8.06640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.9296875" customWidth="1"/>
-    <col min="6" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.53125" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="28.9296875" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>370</v>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="10">
         <v>90</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>270</v>
       </c>
+      <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="10">
         <v>89</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="10">
+      <c r="C4" s="10">
         <v>89</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="10">
         <v>90</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="10">
+      <c r="C6" s="10">
         <v>97</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:7" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="10">
+      <c r="C7" s="10">
         <v>93</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="10">
+      <c r="C8" s="10">
         <v>98</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="10">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="C9" s="10">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="10">
+      <c r="C10" s="10">
         <v>97</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="10">
+      <c r="C11" s="10">
         <v>89</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="10">
+      <c r="C12" s="10">
         <v>88</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="10">
+      <c r="C13" s="10">
         <v>70</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="10">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C14" s="10">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="10">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C15" s="10">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D16" s="10">
+      <c r="C16" s="10">
         <v>85</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="10">
+      <c r="C17" s="10">
         <v>97</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="10">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="C18" s="10">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D19" s="10">
+      <c r="C19" s="10">
         <v>90</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="10">
+      <c r="C20" s="10">
         <v>95</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="10">
+      <c r="C21" s="10">
         <v>86</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D22" s="10">
+      <c r="C22" s="10">
         <v>95</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="10">
+      <c r="C23" s="10">
         <v>95</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="10">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C24" s="10">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="10">
-        <v>100</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C25" s="10">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="10">
-        <v>100</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="C26" s="10">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="10">
+      <c r="C27" s="10">
         <v>93</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="10">
-        <v>100</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C28" s="10">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="10">
+      <c r="C29" s="10">
         <v>96</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="10">
+      <c r="C30" s="10">
         <v>97</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="10">
-        <v>100</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C31" s="10">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="10">
-        <v>100</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C32" s="10">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="10">
+      <c r="C33" s="10">
         <v>50</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D34" s="10">
+      <c r="C34" s="10">
         <v>97</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="10">
-        <v>100</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C35" s="10">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="10">
-        <v>100</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C36" s="10">
+        <v>100</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="10">
+      <c r="C37" s="10">
         <v>94</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="10">
+      <c r="C38" s="10">
         <v>90</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="10">
+      <c r="C39" s="10">
         <v>96</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="10">
-        <v>100</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C40" s="10">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="10">
-        <v>100</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C41" s="10">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C42" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="10">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C42" s="10">
+        <v>100</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="10">
+      <c r="C43" s="10">
         <v>95</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="10">
-        <v>100</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C44" s="10">
+        <v>100</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="10">
+      <c r="C45" s="10">
         <v>95</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="10">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C46" s="10">
+        <v>100</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="10">
-        <v>100</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C47" s="10">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="10">
-        <v>100</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C48" s="10">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="10">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C49" s="10">
+        <v>100</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="10">
+      <c r="C50" s="10">
         <v>95</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="10">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C51" s="10">
+        <v>100</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="10">
-        <v>100</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C52" s="10">
+        <v>100</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="10">
-        <v>100</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C53" s="10">
+        <v>100</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="10">
-        <v>100</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C54" s="10">
+        <v>100</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="10">
+      <c r="C55" s="10">
         <v>90</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C56" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D56" s="10">
+      <c r="C56" s="10">
         <v>78</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="10">
+      <c r="C57" s="10">
         <v>95</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="10">
+      <c r="C58" s="10">
         <v>95</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C59" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="10">
+      <c r="C59" s="10">
         <v>79</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="10">
-        <v>100</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C60" s="10">
+        <v>100</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="10">
+      <c r="C61" s="10">
         <v>90</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C62" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="10">
+      <c r="C62" s="10">
         <v>95</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="10">
-        <v>100</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="C63" s="10">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="10">
+      <c r="C64" s="10">
         <v>89</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="10">
+      <c r="C65" s="10">
         <v>95</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="10">
-        <v>100</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C66" s="10">
+        <v>100</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="10">
+      <c r="C67" s="10">
         <v>97</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="10">
-        <v>100</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C68" s="10">
+        <v>100</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="10">
+      <c r="C69" s="10">
         <v>98</v>
       </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="10">
+      <c r="C70" s="10">
         <v>90</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="10">
-        <v>100</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C71" s="10">
+        <v>100</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="10">
+      <c r="C72" s="10">
         <v>95</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="10">
-        <v>100</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C73" s="10">
+        <v>100</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="10">
-        <v>100</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C74" s="10">
+        <v>100</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D75" s="10">
-        <v>100</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C75" s="10">
+        <v>100</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="10">
-        <v>100</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C76" s="10">
+        <v>100</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C77" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="10">
-        <v>100</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C77" s="10">
+        <v>100</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="10">
-        <v>100</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C78" s="10">
+        <v>100</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="10">
+      <c r="C79" s="10">
         <v>96</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C80" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="10">
-        <v>100</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C80" s="10">
+        <v>100</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="10">
+      <c r="C81" s="10">
         <v>79</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C82" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D82" s="10">
+      <c r="C82" s="10">
         <v>95</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C83" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D83" s="10">
+      <c r="C83" s="10">
         <v>90</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C84" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D84" s="10">
+      <c r="C84" s="10">
         <v>88</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C85" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="10">
-        <v>100</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C85" s="10">
+        <v>100</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C86" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D86" s="10">
-        <v>100</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C86" s="10">
+        <v>100</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C87" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="10">
-        <v>100</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C87" s="10">
+        <v>100</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C88" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="10">
-        <v>100</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C88" s="10">
+        <v>100</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C89" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="10">
+      <c r="C89" s="10">
         <v>93</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C90" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D90" s="10">
-        <v>100</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C90" s="10">
+        <v>100</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C91" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D91" s="10">
+      <c r="C91" s="10">
         <v>96</v>
       </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D92" s="10">
+      <c r="C92" s="10">
         <v>96</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C93" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D93" s="10">
-        <v>100</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C93" s="10">
+        <v>100</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C94" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D94" s="10">
-        <v>100</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C94" s="10">
+        <v>100</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C95" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D95" s="10">
-        <v>100</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C95" s="10">
+        <v>100</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C96" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="10">
+      <c r="C96" s="10">
         <v>86</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C97" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D97" s="10">
+      <c r="C97" s="10">
         <v>87</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C98" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D98" s="10">
+      <c r="C98" s="10">
         <v>94</v>
       </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C99" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="10">
+      <c r="C99" s="10">
         <v>87</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C100" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D100" s="10">
+      <c r="C100" s="10">
         <v>89</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C101" s="8" t="s">
+      <c r="B101" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D101" s="12">
+      <c r="C101" s="12">
         <v>95</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B102" s="1"/>
-      <c r="C102" s="14" t="s">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B102" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D102" s="15">
-        <f>AVERAGE(D1:D101)</f>
+      <c r="C102" s="15">
+        <f>AVERAGE(C1:C101)</f>
         <v>94.88</v>
       </c>
-      <c r="E102" s="9"/>
+      <c r="D102" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5811,1601 +5209,1297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D805F11-42E2-4E56-A62F-FAB6C2011772}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="45.59765625" customWidth="1"/>
-    <col min="4" max="4" width="8.06640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="7" max="7" width="32.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="45.59765625" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="21">
+      <c r="C2" s="21">
         <v>90</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="21">
+      <c r="C3" s="21">
         <v>85</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="21">
-        <v>100</v>
-      </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C4" s="21">
+        <v>100</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="21">
-        <v>100</v>
-      </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C5" s="21">
+        <v>100</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="21">
-        <v>100</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C6" s="21">
+        <v>100</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="21">
+      <c r="C7" s="21">
         <v>90</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="21">
-        <v>100</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C8" s="21">
+        <v>100</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="21">
-        <v>100</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C9" s="21">
+        <v>100</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="21">
-        <v>100</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="C10" s="21">
+        <v>100</v>
+      </c>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="21">
+      <c r="C11" s="21">
         <v>90</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="21">
+      <c r="C12" s="21">
         <v>92</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="21">
+      <c r="C13" s="21">
         <v>89</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="21">
+      <c r="C14" s="21">
         <v>94</v>
       </c>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="21">
-        <v>100</v>
-      </c>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C15" s="21">
+        <v>100</v>
+      </c>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D16" s="21">
+      <c r="C16" s="21">
         <v>90</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="24" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="21">
+      <c r="C17" s="21">
         <v>93</v>
       </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="21">
+      <c r="C18" s="21">
         <v>93</v>
       </c>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D19" s="21">
+      <c r="C19" s="21">
         <v>89</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="21">
+      <c r="C20" s="21">
         <v>94</v>
       </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="21">
+      <c r="C21" s="21">
         <v>93</v>
       </c>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="21">
+      <c r="C22" s="21">
         <v>89</v>
       </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D23" s="21">
+      <c r="C23" s="21">
         <v>89</v>
       </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="21">
-        <v>100</v>
-      </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C24" s="21">
+        <v>100</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="21">
+      <c r="C25" s="21">
         <v>96</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="21">
+      <c r="C26" s="21">
         <v>90</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="21">
+      <c r="C27" s="21">
         <v>90</v>
       </c>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="21">
+      <c r="C28" s="21">
         <v>97</v>
       </c>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="21">
+      <c r="C29" s="21">
         <v>90</v>
       </c>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="21">
+      <c r="C30" s="21">
         <v>90</v>
       </c>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="21">
-        <v>100</v>
-      </c>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C31" s="21">
+        <v>100</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="21">
+      <c r="C32" s="21">
         <v>90</v>
       </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="21">
-        <v>100</v>
-      </c>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C33" s="21">
+        <v>100</v>
+      </c>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D34" s="21">
+      <c r="C34" s="21">
         <v>92</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="21">
+      <c r="C35" s="21">
         <v>89</v>
       </c>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="21">
-        <v>100</v>
-      </c>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C36" s="21">
+        <v>100</v>
+      </c>
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="21">
-        <v>100</v>
-      </c>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C37" s="21">
+        <v>100</v>
+      </c>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C38" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="21">
+      <c r="C38" s="21">
         <v>91</v>
       </c>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="21">
-        <v>100</v>
-      </c>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C39" s="21">
+        <v>100</v>
+      </c>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="21">
-        <v>100</v>
-      </c>
-      <c r="E40" s="24"/>
-    </row>
-    <row r="41" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C40" s="21">
+        <v>100</v>
+      </c>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="21">
+      <c r="C41" s="21">
         <v>89</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C42" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="21">
+      <c r="C42" s="21">
         <v>97</v>
       </c>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="21">
+      <c r="C43" s="21">
         <v>90</v>
       </c>
-      <c r="E43" s="24"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="21">
-        <v>100</v>
-      </c>
-      <c r="E44" s="24"/>
-    </row>
-    <row r="45" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C44" s="21">
+        <v>100</v>
+      </c>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="21">
+      <c r="C45" s="21">
         <v>97</v>
       </c>
-      <c r="E45" s="24"/>
-    </row>
-    <row r="46" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="21">
-        <v>100</v>
-      </c>
-      <c r="E46" s="24"/>
-    </row>
-    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C46" s="21">
+        <v>100</v>
+      </c>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="21">
-        <v>100</v>
-      </c>
-      <c r="E47" s="24"/>
-    </row>
-    <row r="48" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C47" s="21">
+        <v>100</v>
+      </c>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="21">
+      <c r="C48" s="21">
         <v>90</v>
       </c>
-      <c r="E48" s="24"/>
-    </row>
-    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="21">
-        <v>100</v>
-      </c>
-      <c r="E49" s="24"/>
-    </row>
-    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C49" s="21">
+        <v>100</v>
+      </c>
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D50" s="21">
+      <c r="C50" s="21">
         <v>89</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="D50" s="24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="21">
+      <c r="C51" s="21">
         <v>97</v>
       </c>
-      <c r="E51" s="24"/>
-    </row>
-    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C52" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D52" s="21">
+      <c r="C52" s="21">
         <v>85</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="21">
-        <v>100</v>
-      </c>
-      <c r="E53" s="24"/>
-    </row>
-    <row r="54" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C53" s="21">
+        <v>100</v>
+      </c>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C54" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D54" s="21">
+      <c r="C54" s="21">
         <v>90</v>
       </c>
-      <c r="E54" s="24"/>
-    </row>
-    <row r="55" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="21">
+      <c r="C55" s="21">
         <v>89</v>
       </c>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C56" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D56" s="21">
+      <c r="C56" s="21">
         <v>87</v>
       </c>
-      <c r="E56" s="24"/>
-    </row>
-    <row r="57" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="21">
+      <c r="C57" s="21">
         <v>95</v>
       </c>
-      <c r="E57" s="24"/>
-    </row>
-    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C58" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D58" s="21">
+      <c r="C58" s="21">
         <v>95</v>
       </c>
-      <c r="E58" s="24"/>
-    </row>
-    <row r="59" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C59" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="21">
+      <c r="C59" s="21">
         <v>90</v>
       </c>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C60" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D60" s="21">
+      <c r="C60" s="21">
         <v>98</v>
       </c>
-      <c r="E60" s="24"/>
-    </row>
-    <row r="61" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D60" s="24"/>
+    </row>
+    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C61" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="21">
+      <c r="C61" s="21">
         <v>94</v>
       </c>
-      <c r="E61" s="24"/>
-    </row>
-    <row r="62" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C62" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D62" s="21">
+      <c r="C62" s="21">
         <v>90</v>
       </c>
-      <c r="E62" s="24"/>
-    </row>
-    <row r="63" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D62" s="24"/>
+    </row>
+    <row r="63" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C63" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="21">
+      <c r="C63" s="21">
         <v>94</v>
       </c>
-      <c r="E63" s="24"/>
-    </row>
-    <row r="64" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C64" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D64" s="21">
+      <c r="C64" s="21">
         <v>88</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="D64" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D65" s="21">
+      <c r="C65" s="21">
         <v>97</v>
       </c>
-      <c r="E65" s="24"/>
-    </row>
-    <row r="66" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C66" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D66" s="21">
+      <c r="C66" s="21">
         <v>98</v>
       </c>
-      <c r="E66" s="24"/>
-    </row>
-    <row r="67" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D66" s="24"/>
+    </row>
+    <row r="67" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="21">
+      <c r="C67" s="21">
         <v>96</v>
       </c>
-      <c r="E67" s="24"/>
-    </row>
-    <row r="68" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D67" s="24"/>
+    </row>
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="21">
-        <v>100</v>
-      </c>
-      <c r="E68" s="24"/>
-    </row>
-    <row r="69" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C68" s="21">
+        <v>100</v>
+      </c>
+      <c r="D68" s="24"/>
+    </row>
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="21">
+      <c r="C69" s="21">
         <v>98</v>
       </c>
-      <c r="E69" s="24"/>
-    </row>
-    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D69" s="24"/>
+    </row>
+    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C70" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="21">
+      <c r="C70" s="21">
         <v>98</v>
       </c>
-      <c r="E70" s="24"/>
-    </row>
-    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D70" s="24"/>
+    </row>
+    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C71" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D71" s="21">
+      <c r="C71" s="21">
         <v>96</v>
       </c>
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D71" s="24"/>
+    </row>
+    <row r="72" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C72" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D72" s="21">
+      <c r="C72" s="21">
         <v>90</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="D72" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C73" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="21">
-        <v>100</v>
-      </c>
-      <c r="E73" s="24"/>
-    </row>
-    <row r="74" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C73" s="21">
+        <v>100</v>
+      </c>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C74" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="21">
-        <v>100</v>
-      </c>
-      <c r="E74" s="24"/>
-    </row>
-    <row r="75" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C74" s="21">
+        <v>100</v>
+      </c>
+      <c r="D74" s="24"/>
+    </row>
+    <row r="75" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C75" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D75" s="21">
+      <c r="C75" s="21">
         <v>95</v>
       </c>
-      <c r="E75" s="24"/>
-    </row>
-    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D76" s="21">
+      <c r="C76" s="21">
         <v>97</v>
       </c>
-      <c r="E76" s="24"/>
-    </row>
-    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D76" s="24"/>
+    </row>
+    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C77" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D77" s="21">
-        <v>100</v>
-      </c>
-      <c r="E77" s="24"/>
-    </row>
-    <row r="78" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C77" s="21">
+        <v>100</v>
+      </c>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C78" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="21">
+      <c r="C78" s="21">
         <v>97</v>
       </c>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D78" s="24"/>
+    </row>
+    <row r="79" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C79" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D79" s="21">
+      <c r="C79" s="21">
         <v>89</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="D79" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C80" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="21">
+      <c r="C80" s="21">
         <v>97</v>
       </c>
-      <c r="E80" s="24"/>
-    </row>
-    <row r="81" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="D80" s="24"/>
+    </row>
+    <row r="81" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C81" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="21">
+      <c r="C81" s="21">
         <v>94</v>
       </c>
-      <c r="E81" s="24"/>
-    </row>
-    <row r="82" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D81" s="24"/>
+    </row>
+    <row r="82" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C82" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D82" s="21">
+      <c r="C82" s="21">
         <v>93</v>
       </c>
-      <c r="E82" s="24"/>
-    </row>
-    <row r="83" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="D82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C83" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D83" s="21">
+      <c r="C83" s="21">
         <v>94</v>
       </c>
-      <c r="E83" s="24"/>
-    </row>
-    <row r="84" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D83" s="24"/>
+    </row>
+    <row r="84" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C84" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D84" s="21">
+      <c r="C84" s="21">
         <v>90</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="D84" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C85" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D85" s="21">
+      <c r="C85" s="21">
         <v>93</v>
       </c>
-      <c r="E85" s="24"/>
-    </row>
-    <row r="86" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D85" s="24"/>
+    </row>
+    <row r="86" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C86" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D86" s="21">
+      <c r="C86" s="21">
         <v>93</v>
       </c>
-      <c r="E86" s="24"/>
-    </row>
-    <row r="87" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D86" s="24"/>
+    </row>
+    <row r="87" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C87" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D87" s="21">
+      <c r="C87" s="21">
         <v>89</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="D87" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C88" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D88" s="21">
-        <v>100</v>
-      </c>
-      <c r="E88" s="24"/>
-    </row>
-    <row r="89" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C88" s="21">
+        <v>100</v>
+      </c>
+      <c r="D88" s="24"/>
+    </row>
+    <row r="89" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C89" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D89" s="21">
+      <c r="C89" s="21">
         <v>90</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="D89" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="21">
+      <c r="C90" s="21">
         <v>90</v>
       </c>
-      <c r="E90" s="24"/>
-    </row>
-    <row r="91" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D90" s="24"/>
+    </row>
+    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C91" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D91" s="21">
+      <c r="C91" s="21">
         <v>92</v>
       </c>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="D91" s="24"/>
+    </row>
+    <row r="92" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C92" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D92" s="21">
+      <c r="C92" s="21">
         <v>94</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="D92" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C93" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D93" s="21">
+      <c r="C93" s="21">
         <v>89</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="D93" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C94" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D94" s="21">
-        <v>100</v>
-      </c>
-      <c r="E94" s="24"/>
-    </row>
-    <row r="95" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C94" s="21">
+        <v>100</v>
+      </c>
+      <c r="D94" s="24"/>
+    </row>
+    <row r="95" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C95" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D95" s="21">
-        <v>100</v>
-      </c>
-      <c r="E95" s="24"/>
-    </row>
-    <row r="96" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C95" s="21">
+        <v>100</v>
+      </c>
+      <c r="D95" s="24"/>
+    </row>
+    <row r="96" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C96" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D96" s="21">
+      <c r="C96" s="21">
         <v>88</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="D96" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C97" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D97" s="21">
+      <c r="C97" s="21">
         <v>89</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="D97" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C98" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D98" s="21">
+      <c r="C98" s="21">
         <v>94</v>
       </c>
-      <c r="E98" s="24"/>
-    </row>
-    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D98" s="24"/>
+    </row>
+    <row r="99" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C99" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D99" s="21">
+      <c r="C99" s="21">
         <v>89</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="D99" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C100" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D100" s="21">
+      <c r="C100" s="21">
         <v>97</v>
       </c>
-      <c r="E100" s="24"/>
-    </row>
-    <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D100" s="24"/>
+    </row>
+    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C101" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D101" s="21">
+      <c r="C101" s="21">
         <v>90</v>
       </c>
-      <c r="E101" s="24"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D101" s="24"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="17" t="s">
+      <c r="B102" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D102" s="19">
-        <f>AVERAGE(D2:D101)</f>
+      <c r="C102" s="19">
+        <f>AVERAGE(C2:C101)</f>
         <v>94.15</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C103" s="13"/>
-      <c r="D103" s="22"/>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B103" s="13"/>
+      <c r="C103" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
